--- a/URS/DbLayouts/L6-共同作業/CdGseq.xlsx
+++ b/URS/DbLayouts/L6-共同作業/CdGseq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789312F2-DB02-4730-B06C-E7F2610FC356}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8A7264-35EE-4C88-8420-F6188B766268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="125">
   <si>
     <t>備註說明</t>
   </si>
@@ -453,6 +453,18 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>聯貸編號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gGSeqCom.getSeqNo(0, 1, "L2", "0003", 999999, titaVo)</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1134,7 +1146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1517,10 +1529,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2140,6 +2152,29 @@
         <v>121</v>
       </c>
     </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="32">
+        <v>28</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="36">
+        <v>999999</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
